--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/devcon/resource/rotate.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/devcon/resource/rotate.xlsx
@@ -265,769 +265,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-19</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-26</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-27</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-29</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-30</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-31</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-32</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-33</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-34</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-35</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-36</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-37</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-37</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-38</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-38</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-38</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-38</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-38</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-38</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-38</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-38</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-38</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-37</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-37</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-36</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-35</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-35</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-34</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-33</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-32</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-30</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-29</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-28</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-26</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-25</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-23</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-21</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-19</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-15</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-13</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-11</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-9</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-6</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-1</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>15</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>28</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>31</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>35</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>38</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>41</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>48</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>52</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>56</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>59</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>63</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>67</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>71</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>74</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>78</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>82</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>86</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>90</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>98</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>102</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>106</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>110</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>114</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>118</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>122</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>126</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>130</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>134</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>139</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>143</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>147</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>151</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>155</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>159</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>163</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>167</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>170</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>174</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>178</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>182</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>186</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>190</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>193</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>197</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>201</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>204</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>208</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>212</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>215</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>218</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>222</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>225</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>228</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>231</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>235</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>238</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>241</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>244</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>246</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>249</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>252</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>257</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>260</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>262</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>264</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>266</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>269</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>271</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>273</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>275</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>276</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>278</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>280</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>281</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>283</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>284</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>285</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>286</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>287</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>288</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>289</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>290</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>291</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>291</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>292</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>292</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>292</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>292</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>292</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>292</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>292</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>292</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>292</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>291</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>291</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>290</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>289</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>289</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>288</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>287</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>286</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>284</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>283</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>282</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>280</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>279</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>277</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>275</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>273</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>271</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>269</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>267</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>265</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>263</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>260</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>258</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>255</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>253</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>250</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>247</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>244</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>242</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>239</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>236</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>233</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>229</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>226</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>223</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>219</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>216</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>213</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>209</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>206</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>202</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>198</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>195</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>191</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>187</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>183</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>180</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>176</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>172</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>168</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>164</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>160</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>156</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>152</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>148</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>144</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>140</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>136</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>132</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>128</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>124</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>120</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>115</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>111</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>107</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>103</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>99</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>95</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>91</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>87</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>84</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>80</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>76</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>72</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>68</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>64</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>61</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>57</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>53</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>50</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>46</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>42</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>39</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>36</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>32</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>29</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>26</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>23</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>19</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>16</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>13</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>10</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>8</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>5</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>2</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,772 +1039,772 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>1235</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1231</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1228</c:v>
+                  <c:v>1017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1225</c:v>
+                  <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1221</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1218</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1215</c:v>
+                  <c:v>1006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1211</c:v>
+                  <c:v>1003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1208</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1204</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1200</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1197</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1193</c:v>
+                  <c:v>991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1189</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1185</c:v>
+                  <c:v>987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1182</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1178</c:v>
+                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1174</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1170</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1166</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1162</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1158</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1154</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1150</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1146</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1142</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1138</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1134</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1130</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1126</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1122</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1117</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1113</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1109</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1105</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1101</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1097</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1093</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1089</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1086</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1082</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1078</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1074</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1070</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1066</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1063</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1059</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1055</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1052</c:v>
+                  <c:v>971</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1048</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1044</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1041</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1038</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1034</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1031</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1028</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1025</c:v>
+                  <c:v>983</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1021</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1018</c:v>
+                  <c:v>987</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1015</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1012</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1010</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1007</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1004</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>1002</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>999</c:v>
+                  <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>996</c:v>
+                  <c:v>1007</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>994</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>992</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>990</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>987</c:v>
+                  <c:v>1018</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>985</c:v>
+                  <c:v>1021</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>983</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>981</c:v>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>980</c:v>
+                  <c:v>1031</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>978</c:v>
+                  <c:v>1034</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>976</c:v>
+                  <c:v>1038</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>975</c:v>
+                  <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>973</c:v>
+                  <c:v>1044</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>972</c:v>
+                  <c:v>1048</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>971</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>970</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>969</c:v>
+                  <c:v>1059</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>968</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>967</c:v>
+                  <c:v>1066</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>966</c:v>
+                  <c:v>1070</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>965</c:v>
+                  <c:v>1074</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>965</c:v>
+                  <c:v>1078</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>964</c:v>
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>964</c:v>
+                  <c:v>1086</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>964</c:v>
+                  <c:v>1089</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>964</c:v>
+                  <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>964</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>964</c:v>
+                  <c:v>1101</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>964</c:v>
+                  <c:v>1105</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>964</c:v>
+                  <c:v>1109</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>964</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>965</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>965</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>966</c:v>
+                  <c:v>1126</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>967</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>967</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>968</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>969</c:v>
+                  <c:v>1142</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>970</c:v>
+                  <c:v>1146</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>972</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>973</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>974</c:v>
+                  <c:v>1158</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>976</c:v>
+                  <c:v>1162</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>977</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>979</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>981</c:v>
+                  <c:v>1174</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>983</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>985</c:v>
+                  <c:v>1182</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>987</c:v>
+                  <c:v>1185</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>989</c:v>
+                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>991</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>993</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>996</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>998</c:v>
+                  <c:v>1204</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1001</c:v>
+                  <c:v>1208</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1003</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1006</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1009</c:v>
+                  <c:v>1218</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1012</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1014</c:v>
+                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1017</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1020</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1024</c:v>
+                  <c:v>1235</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1027</c:v>
+                  <c:v>1238</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1030</c:v>
+                  <c:v>1241</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1033</c:v>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1037</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1040</c:v>
+                  <c:v>1249</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1043</c:v>
+                  <c:v>1252</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1047</c:v>
+                  <c:v>1255</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1050</c:v>
+                  <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1054</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1058</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1061</c:v>
+                  <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1065</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1069</c:v>
+                  <c:v>1269</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1073</c:v>
+                  <c:v>1271</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1076</c:v>
+                  <c:v>1273</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1080</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1084</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1088</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>1092</c:v>
+                  <c:v>1281</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1096</c:v>
+                  <c:v>1282</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1100</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1104</c:v>
+                  <c:v>1285</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1108</c:v>
+                  <c:v>1286</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1112</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1116</c:v>
+                  <c:v>1289</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1120</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1124</c:v>
+                  <c:v>1291</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1128</c:v>
+                  <c:v>1291</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1132</c:v>
+                  <c:v>1292</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1136</c:v>
+                  <c:v>1293</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1141</c:v>
+                  <c:v>1293</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1145</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1149</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1153</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1157</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1161</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1165</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1169</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1172</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1176</c:v>
+                  <c:v>1294</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1180</c:v>
+                  <c:v>1293</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1184</c:v>
+                  <c:v>1293</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1188</c:v>
+                  <c:v>1292</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1192</c:v>
+                  <c:v>1291</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1195</c:v>
+                  <c:v>1290</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1199</c:v>
+                  <c:v>1289</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1203</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1206</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1210</c:v>
+                  <c:v>1286</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1214</c:v>
+                  <c:v>1285</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1217</c:v>
+                  <c:v>1283</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1220</c:v>
+                  <c:v>1282</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1224</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1227</c:v>
+                  <c:v>1278</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1230</c:v>
+                  <c:v>1277</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1233</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>1237</c:v>
+                  <c:v>1273</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1240</c:v>
+                  <c:v>1271</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1243</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1246</c:v>
+                  <c:v>1266</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1248</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1251</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1254</c:v>
+                  <c:v>1259</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>1257</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1259</c:v>
+                  <c:v>1254</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1262</c:v>
+                  <c:v>1251</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1264</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1266</c:v>
+                  <c:v>1246</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1268</c:v>
+                  <c:v>1243</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1271</c:v>
+                  <c:v>1240</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1273</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1275</c:v>
+                  <c:v>1233</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1277</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1278</c:v>
+                  <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1280</c:v>
+                  <c:v>1224</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1282</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1283</c:v>
+                  <c:v>1217</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1285</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1286</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1287</c:v>
+                  <c:v>1206</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1288</c:v>
+                  <c:v>1203</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1289</c:v>
+                  <c:v>1199</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1290</c:v>
+                  <c:v>1195</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1291</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1292</c:v>
+                  <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1293</c:v>
+                  <c:v>1184</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1293</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1294</c:v>
+                  <c:v>1176</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1294</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1294</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1294</c:v>
+                  <c:v>1165</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1294</c:v>
+                  <c:v>1161</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1294</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1294</c:v>
+                  <c:v>1153</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1294</c:v>
+                  <c:v>1149</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1294</c:v>
+                  <c:v>1145</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1293</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1293</c:v>
+                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1292</c:v>
+                  <c:v>1132</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1291</c:v>
+                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1291</c:v>
+                  <c:v>1124</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1290</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1289</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1288</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1286</c:v>
+                  <c:v>1108</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1285</c:v>
+                  <c:v>1104</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1284</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1282</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1281</c:v>
+                  <c:v>1092</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1279</c:v>
+                  <c:v>1088</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1277</c:v>
+                  <c:v>1084</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1275</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1273</c:v>
+                  <c:v>1076</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1271</c:v>
+                  <c:v>1073</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1269</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1267</c:v>
+                  <c:v>1065</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1265</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1262</c:v>
+                  <c:v>1058</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1260</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1257</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1255</c:v>
+                  <c:v>1047</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1252</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1249</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1246</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1244</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1241</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1238</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1819,11 +1819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552179760"/>
-        <c:axId val="552180936"/>
+        <c:axId val="316058792"/>
+        <c:axId val="316059184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="552179760"/>
+        <c:axId val="316058792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,12 +1880,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552180936"/>
+        <c:crossAx val="316059184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552180936"/>
+        <c:axId val="316059184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1942,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552179760"/>
+        <c:crossAx val="316058792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2847,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P261" sqref="P261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2945,12 +2945,12 @@
         <v>1129.5</v>
       </c>
       <c r="H6">
-        <f>INT(F6-E6*$F$3)</f>
+        <f>INT(F6+E6*$F$3)</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f>INT(G6+D6*$F$3)</f>
-        <v>1235</v>
+        <f>INT(G6-D6*$F$3)</f>
+        <v>1024</v>
       </c>
       <c r="J6">
         <f>INT(D6*256)</f>
@@ -2986,12 +2986,12 @@
         <v>1126.3709933633286</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H70" si="5">INT(F7-E7*$F$3)</f>
-        <v>-3</v>
+        <f t="shared" ref="H7:H70" si="5">INT(F7+E7*$F$3)</f>
+        <v>2</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:I70" si="6">INT(G7+D7*$F$3)</f>
-        <v>1231</v>
+        <f t="shared" ref="I7:I70" si="6">INT(G7-D7*$F$3)</f>
+        <v>1020</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7:J70" si="7">INT(D7*256)</f>
@@ -3028,11 +3028,11 @@
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <f t="shared" si="6"/>
-        <v>1228</v>
+        <v>1017</v>
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
@@ -3069,11 +3069,11 @@
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <f t="shared" si="6"/>
-        <v>1225</v>
+        <v>1014</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
@@ -3110,11 +3110,11 @@
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <f t="shared" si="6"/>
-        <v>1221</v>
+        <v>1012</v>
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
@@ -3151,11 +3151,11 @@
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>-12</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <f t="shared" si="6"/>
-        <v>1218</v>
+        <v>1009</v>
       </c>
       <c r="J11">
         <f t="shared" si="7"/>
@@ -3192,11 +3192,11 @@
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <f t="shared" si="6"/>
-        <v>1215</v>
+        <v>1006</v>
       </c>
       <c r="J12">
         <f t="shared" si="7"/>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="I13">
         <f t="shared" si="6"/>
-        <v>1211</v>
+        <v>1003</v>
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
@@ -3274,11 +3274,11 @@
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>-19</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <f t="shared" si="6"/>
-        <v>1208</v>
+        <v>1001</v>
       </c>
       <c r="J14">
         <f t="shared" si="7"/>
@@ -3315,11 +3315,11 @@
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
-        <v>-21</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <f t="shared" si="6"/>
-        <v>1204</v>
+        <v>998</v>
       </c>
       <c r="J15">
         <f t="shared" si="7"/>
@@ -3356,11 +3356,11 @@
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
-        <v>-22</v>
+        <v>29</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1200</v>
+        <v>996</v>
       </c>
       <c r="J16">
         <f t="shared" si="7"/>
@@ -3397,11 +3397,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
-        <v>-24</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>1197</v>
+        <v>993</v>
       </c>
       <c r="J17">
         <f t="shared" si="7"/>
@@ -3438,11 +3438,11 @@
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
-        <v>-26</v>
+        <v>36</v>
       </c>
       <c r="I18">
         <f t="shared" si="6"/>
-        <v>1193</v>
+        <v>991</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
@@ -3479,11 +3479,11 @@
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
-        <v>-27</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <f t="shared" si="6"/>
-        <v>1189</v>
+        <v>989</v>
       </c>
       <c r="J19">
         <f t="shared" si="7"/>
@@ -3520,11 +3520,11 @@
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>-29</v>
+        <v>42</v>
       </c>
       <c r="I20">
         <f t="shared" si="6"/>
-        <v>1185</v>
+        <v>987</v>
       </c>
       <c r="J20">
         <f t="shared" si="7"/>
@@ -3561,11 +3561,11 @@
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
-        <v>-30</v>
+        <v>46</v>
       </c>
       <c r="I21">
         <f t="shared" si="6"/>
-        <v>1182</v>
+        <v>985</v>
       </c>
       <c r="J21">
         <f t="shared" si="7"/>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
-        <v>-31</v>
+        <v>50</v>
       </c>
       <c r="I22">
         <f t="shared" si="6"/>
-        <v>1178</v>
+        <v>983</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
@@ -3643,11 +3643,11 @@
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
-        <v>-32</v>
+        <v>53</v>
       </c>
       <c r="I23">
         <f t="shared" si="6"/>
-        <v>1174</v>
+        <v>981</v>
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
@@ -3684,11 +3684,11 @@
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
-        <v>-33</v>
+        <v>57</v>
       </c>
       <c r="I24">
         <f t="shared" si="6"/>
-        <v>1170</v>
+        <v>979</v>
       </c>
       <c r="J24">
         <f t="shared" si="7"/>
@@ -3725,11 +3725,11 @@
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
-        <v>-34</v>
+        <v>61</v>
       </c>
       <c r="I25">
         <f t="shared" si="6"/>
-        <v>1166</v>
+        <v>977</v>
       </c>
       <c r="J25">
         <f t="shared" si="7"/>
@@ -3766,11 +3766,11 @@
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>64</v>
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
-        <v>1162</v>
+        <v>976</v>
       </c>
       <c r="J26">
         <f t="shared" si="7"/>
@@ -3807,11 +3807,11 @@
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
-        <v>-36</v>
+        <v>68</v>
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
-        <v>1158</v>
+        <v>974</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
@@ -3848,11 +3848,11 @@
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
-        <v>-37</v>
+        <v>72</v>
       </c>
       <c r="I28">
         <f t="shared" si="6"/>
-        <v>1154</v>
+        <v>973</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
@@ -3889,11 +3889,11 @@
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
-        <v>-37</v>
+        <v>76</v>
       </c>
       <c r="I29">
         <f t="shared" si="6"/>
-        <v>1150</v>
+        <v>972</v>
       </c>
       <c r="J29">
         <f t="shared" si="7"/>
@@ -3930,11 +3930,11 @@
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>80</v>
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>1146</v>
+        <v>970</v>
       </c>
       <c r="J30">
         <f t="shared" si="7"/>
@@ -3971,11 +3971,11 @@
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>84</v>
       </c>
       <c r="I31">
         <f t="shared" si="6"/>
-        <v>1142</v>
+        <v>969</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
@@ -4012,11 +4012,11 @@
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>87</v>
       </c>
       <c r="I32">
         <f t="shared" si="6"/>
-        <v>1138</v>
+        <v>968</v>
       </c>
       <c r="J32">
         <f t="shared" si="7"/>
@@ -4053,11 +4053,11 @@
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>91</v>
       </c>
       <c r="I33">
         <f t="shared" si="6"/>
-        <v>1134</v>
+        <v>967</v>
       </c>
       <c r="J33">
         <f t="shared" si="7"/>
@@ -4094,11 +4094,11 @@
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>95</v>
       </c>
       <c r="I34">
         <f t="shared" si="6"/>
-        <v>1130</v>
+        <v>967</v>
       </c>
       <c r="J34">
         <f t="shared" si="7"/>
@@ -4135,11 +4135,11 @@
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>99</v>
       </c>
       <c r="I35">
         <f t="shared" si="6"/>
-        <v>1126</v>
+        <v>966</v>
       </c>
       <c r="J35">
         <f t="shared" si="7"/>
@@ -4176,11 +4176,11 @@
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>103</v>
       </c>
       <c r="I36">
         <f t="shared" si="6"/>
-        <v>1122</v>
+        <v>965</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
@@ -4217,11 +4217,11 @@
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>107</v>
       </c>
       <c r="I37">
         <f t="shared" si="6"/>
-        <v>1117</v>
+        <v>965</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
@@ -4258,11 +4258,11 @@
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>-38</v>
+        <v>111</v>
       </c>
       <c r="I38">
         <f t="shared" si="6"/>
-        <v>1113</v>
+        <v>964</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
@@ -4299,11 +4299,11 @@
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>-37</v>
+        <v>115</v>
       </c>
       <c r="I39">
         <f t="shared" si="6"/>
-        <v>1109</v>
+        <v>964</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>-37</v>
+        <v>120</v>
       </c>
       <c r="I40">
         <f t="shared" si="6"/>
-        <v>1105</v>
+        <v>964</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
@@ -4381,11 +4381,11 @@
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>-36</v>
+        <v>124</v>
       </c>
       <c r="I41">
         <f t="shared" si="6"/>
-        <v>1101</v>
+        <v>964</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
@@ -4422,11 +4422,11 @@
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>128</v>
       </c>
       <c r="I42">
         <f t="shared" si="6"/>
-        <v>1097</v>
+        <v>964</v>
       </c>
       <c r="J42">
         <f t="shared" si="7"/>
@@ -4463,11 +4463,11 @@
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>132</v>
       </c>
       <c r="I43">
         <f t="shared" si="6"/>
-        <v>1093</v>
+        <v>964</v>
       </c>
       <c r="J43">
         <f t="shared" si="7"/>
@@ -4504,11 +4504,11 @@
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
-        <v>-34</v>
+        <v>136</v>
       </c>
       <c r="I44">
         <f t="shared" si="6"/>
-        <v>1089</v>
+        <v>964</v>
       </c>
       <c r="J44">
         <f t="shared" si="7"/>
@@ -4545,11 +4545,11 @@
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
-        <v>-33</v>
+        <v>140</v>
       </c>
       <c r="I45">
         <f t="shared" si="6"/>
-        <v>1086</v>
+        <v>964</v>
       </c>
       <c r="J45">
         <f t="shared" si="7"/>
@@ -4586,11 +4586,11 @@
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
-        <v>-32</v>
+        <v>144</v>
       </c>
       <c r="I46">
         <f t="shared" si="6"/>
-        <v>1082</v>
+        <v>964</v>
       </c>
       <c r="J46">
         <f t="shared" si="7"/>
@@ -4627,11 +4627,11 @@
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
-        <v>-30</v>
+        <v>148</v>
       </c>
       <c r="I47">
         <f t="shared" si="6"/>
-        <v>1078</v>
+        <v>965</v>
       </c>
       <c r="J47">
         <f t="shared" si="7"/>
@@ -4668,11 +4668,11 @@
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>-29</v>
+        <v>152</v>
       </c>
       <c r="I48">
         <f t="shared" si="6"/>
-        <v>1074</v>
+        <v>965</v>
       </c>
       <c r="J48">
         <f t="shared" si="7"/>
@@ -4709,11 +4709,11 @@
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>-28</v>
+        <v>156</v>
       </c>
       <c r="I49">
         <f t="shared" si="6"/>
-        <v>1070</v>
+        <v>966</v>
       </c>
       <c r="J49">
         <f t="shared" si="7"/>
@@ -4750,11 +4750,11 @@
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>-26</v>
+        <v>160</v>
       </c>
       <c r="I50">
         <f t="shared" si="6"/>
-        <v>1066</v>
+        <v>967</v>
       </c>
       <c r="J50">
         <f t="shared" si="7"/>
@@ -4791,11 +4791,11 @@
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>-25</v>
+        <v>164</v>
       </c>
       <c r="I51">
         <f t="shared" si="6"/>
-        <v>1063</v>
+        <v>968</v>
       </c>
       <c r="J51">
         <f t="shared" si="7"/>
@@ -4832,11 +4832,11 @@
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>-23</v>
+        <v>168</v>
       </c>
       <c r="I52">
         <f t="shared" si="6"/>
-        <v>1059</v>
+        <v>969</v>
       </c>
       <c r="J52">
         <f t="shared" si="7"/>
@@ -4873,11 +4873,11 @@
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>-21</v>
+        <v>172</v>
       </c>
       <c r="I53">
         <f t="shared" si="6"/>
-        <v>1055</v>
+        <v>970</v>
       </c>
       <c r="J53">
         <f t="shared" si="7"/>
@@ -4914,11 +4914,11 @@
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>-19</v>
+        <v>176</v>
       </c>
       <c r="I54">
         <f t="shared" si="6"/>
-        <v>1052</v>
+        <v>971</v>
       </c>
       <c r="J54">
         <f t="shared" si="7"/>
@@ -4955,11 +4955,11 @@
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>-17</v>
+        <v>180</v>
       </c>
       <c r="I55">
         <f t="shared" si="6"/>
-        <v>1048</v>
+        <v>972</v>
       </c>
       <c r="J55">
         <f t="shared" si="7"/>
@@ -4996,11 +4996,11 @@
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>-15</v>
+        <v>183</v>
       </c>
       <c r="I56">
         <f t="shared" si="6"/>
-        <v>1044</v>
+        <v>973</v>
       </c>
       <c r="J56">
         <f t="shared" si="7"/>
@@ -5037,11 +5037,11 @@
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>-13</v>
+        <v>187</v>
       </c>
       <c r="I57">
         <f t="shared" si="6"/>
-        <v>1041</v>
+        <v>975</v>
       </c>
       <c r="J57">
         <f t="shared" si="7"/>
@@ -5078,11 +5078,11 @@
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>-11</v>
+        <v>191</v>
       </c>
       <c r="I58">
         <f t="shared" si="6"/>
-        <v>1038</v>
+        <v>976</v>
       </c>
       <c r="J58">
         <f t="shared" si="7"/>
@@ -5119,11 +5119,11 @@
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>-9</v>
+        <v>195</v>
       </c>
       <c r="I59">
         <f t="shared" si="6"/>
-        <v>1034</v>
+        <v>978</v>
       </c>
       <c r="J59">
         <f t="shared" si="7"/>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>-6</v>
+        <v>198</v>
       </c>
       <c r="I60">
         <f t="shared" si="6"/>
-        <v>1031</v>
+        <v>980</v>
       </c>
       <c r="J60">
         <f t="shared" si="7"/>
@@ -5201,11 +5201,11 @@
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>202</v>
       </c>
       <c r="I61">
         <f t="shared" si="6"/>
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="J61">
         <f t="shared" si="7"/>
@@ -5242,11 +5242,11 @@
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>206</v>
       </c>
       <c r="I62">
         <f t="shared" si="6"/>
-        <v>1025</v>
+        <v>983</v>
       </c>
       <c r="J62">
         <f t="shared" si="7"/>
@@ -5283,11 +5283,11 @@
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="I63">
         <f t="shared" si="6"/>
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="J63">
         <f t="shared" si="7"/>
@@ -5324,11 +5324,11 @@
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="I64">
         <f t="shared" si="6"/>
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="J64">
         <f t="shared" si="7"/>
@@ -5365,11 +5365,11 @@
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="I65">
         <f t="shared" si="6"/>
-        <v>1015</v>
+        <v>990</v>
       </c>
       <c r="J65">
         <f t="shared" si="7"/>
@@ -5406,11 +5406,11 @@
       </c>
       <c r="H66">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="I66">
         <f t="shared" si="6"/>
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="J66">
         <f t="shared" si="7"/>
@@ -5447,11 +5447,11 @@
       </c>
       <c r="H67">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I67">
         <f t="shared" si="6"/>
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="J67">
         <f t="shared" si="7"/>
@@ -5488,11 +5488,11 @@
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="I68">
         <f t="shared" si="6"/>
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="J68">
         <f t="shared" si="7"/>
@@ -5529,11 +5529,11 @@
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I69">
         <f t="shared" si="6"/>
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="J69">
         <f t="shared" si="7"/>
@@ -5570,7 +5570,7 @@
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I70">
         <f t="shared" si="6"/>
@@ -5610,12 +5610,12 @@
         <v>1002.038400616234</v>
       </c>
       <c r="H71">
-        <f t="shared" ref="H71:H134" si="14">INT(F71-E71*$F$3)</f>
-        <v>25</v>
+        <f t="shared" ref="H71:H134" si="14">INT(F71+E71*$F$3)</f>
+        <v>236</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:I134" si="15">INT(G71+D71*$F$3)</f>
-        <v>999</v>
+        <f t="shared" ref="I71:I134" si="15">INT(G71-D71*$F$3)</f>
+        <v>1004</v>
       </c>
       <c r="J71">
         <f t="shared" ref="J71:J134" si="16">INT(D71*256)</f>
@@ -5652,11 +5652,11 @@
       </c>
       <c r="H72">
         <f t="shared" si="14"/>
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="I72">
         <f t="shared" si="15"/>
-        <v>996</v>
+        <v>1007</v>
       </c>
       <c r="J72">
         <f t="shared" si="16"/>
@@ -5693,11 +5693,11 @@
       </c>
       <c r="H73">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="I73">
         <f t="shared" si="15"/>
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="J73">
         <f t="shared" si="16"/>
@@ -5734,11 +5734,11 @@
       </c>
       <c r="H74">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="I74">
         <f t="shared" si="15"/>
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="J74">
         <f t="shared" si="16"/>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="H75">
         <f t="shared" si="14"/>
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="I75">
         <f t="shared" si="15"/>
-        <v>990</v>
+        <v>1015</v>
       </c>
       <c r="J75">
         <f t="shared" si="16"/>
@@ -5816,11 +5816,11 @@
       </c>
       <c r="H76">
         <f t="shared" si="14"/>
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="I76">
         <f t="shared" si="15"/>
-        <v>987</v>
+        <v>1018</v>
       </c>
       <c r="J76">
         <f t="shared" si="16"/>
@@ -5857,11 +5857,11 @@
       </c>
       <c r="H77">
         <f t="shared" si="14"/>
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="I77">
         <f t="shared" si="15"/>
-        <v>985</v>
+        <v>1021</v>
       </c>
       <c r="J77">
         <f t="shared" si="16"/>
@@ -5898,11 +5898,11 @@
       </c>
       <c r="H78">
         <f t="shared" si="14"/>
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="I78">
         <f t="shared" si="15"/>
-        <v>983</v>
+        <v>1025</v>
       </c>
       <c r="J78">
         <f t="shared" si="16"/>
@@ -5939,11 +5939,11 @@
       </c>
       <c r="H79">
         <f t="shared" si="14"/>
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I79">
         <f t="shared" si="15"/>
-        <v>981</v>
+        <v>1028</v>
       </c>
       <c r="J79">
         <f t="shared" si="16"/>
@@ -5980,11 +5980,11 @@
       </c>
       <c r="H80">
         <f t="shared" si="14"/>
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="I80">
         <f t="shared" si="15"/>
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="J80">
         <f t="shared" si="16"/>
@@ -6021,11 +6021,11 @@
       </c>
       <c r="H81">
         <f t="shared" si="14"/>
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="I81">
         <f t="shared" si="15"/>
-        <v>978</v>
+        <v>1034</v>
       </c>
       <c r="J81">
         <f t="shared" si="16"/>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="H82">
         <f t="shared" si="14"/>
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="I82">
         <f t="shared" si="15"/>
-        <v>976</v>
+        <v>1038</v>
       </c>
       <c r="J82">
         <f t="shared" si="16"/>
@@ -6103,11 +6103,11 @@
       </c>
       <c r="H83">
         <f t="shared" si="14"/>
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="I83">
         <f t="shared" si="15"/>
-        <v>975</v>
+        <v>1041</v>
       </c>
       <c r="J83">
         <f t="shared" si="16"/>
@@ -6144,11 +6144,11 @@
       </c>
       <c r="H84">
         <f t="shared" si="14"/>
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="I84">
         <f t="shared" si="15"/>
-        <v>973</v>
+        <v>1044</v>
       </c>
       <c r="J84">
         <f t="shared" si="16"/>
@@ -6185,11 +6185,11 @@
       </c>
       <c r="H85">
         <f t="shared" si="14"/>
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="I85">
         <f t="shared" si="15"/>
-        <v>972</v>
+        <v>1048</v>
       </c>
       <c r="J85">
         <f t="shared" si="16"/>
@@ -6226,11 +6226,11 @@
       </c>
       <c r="H86">
         <f t="shared" si="14"/>
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="I86">
         <f t="shared" si="15"/>
-        <v>971</v>
+        <v>1052</v>
       </c>
       <c r="J86">
         <f t="shared" si="16"/>
@@ -6267,11 +6267,11 @@
       </c>
       <c r="H87">
         <f t="shared" si="14"/>
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="I87">
         <f t="shared" si="15"/>
-        <v>970</v>
+        <v>1055</v>
       </c>
       <c r="J87">
         <f t="shared" si="16"/>
@@ -6308,11 +6308,11 @@
       </c>
       <c r="H88">
         <f t="shared" si="14"/>
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="I88">
         <f t="shared" si="15"/>
-        <v>969</v>
+        <v>1059</v>
       </c>
       <c r="J88">
         <f t="shared" si="16"/>
@@ -6349,11 +6349,11 @@
       </c>
       <c r="H89">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="I89">
         <f t="shared" si="15"/>
-        <v>968</v>
+        <v>1063</v>
       </c>
       <c r="J89">
         <f t="shared" si="16"/>
@@ -6390,11 +6390,11 @@
       </c>
       <c r="H90">
         <f t="shared" si="14"/>
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="I90">
         <f t="shared" si="15"/>
-        <v>967</v>
+        <v>1066</v>
       </c>
       <c r="J90">
         <f t="shared" si="16"/>
@@ -6431,11 +6431,11 @@
       </c>
       <c r="H91">
         <f t="shared" si="14"/>
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="I91">
         <f t="shared" si="15"/>
-        <v>966</v>
+        <v>1070</v>
       </c>
       <c r="J91">
         <f t="shared" si="16"/>
@@ -6472,11 +6472,11 @@
       </c>
       <c r="H92">
         <f t="shared" si="14"/>
-        <v>102</v>
+        <v>283</v>
       </c>
       <c r="I92">
         <f t="shared" si="15"/>
-        <v>965</v>
+        <v>1074</v>
       </c>
       <c r="J92">
         <f t="shared" si="16"/>
@@ -6513,11 +6513,11 @@
       </c>
       <c r="H93">
         <f t="shared" si="14"/>
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="I93">
         <f t="shared" si="15"/>
-        <v>965</v>
+        <v>1078</v>
       </c>
       <c r="J93">
         <f t="shared" si="16"/>
@@ -6554,11 +6554,11 @@
       </c>
       <c r="H94">
         <f t="shared" si="14"/>
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="I94">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1082</v>
       </c>
       <c r="J94">
         <f t="shared" si="16"/>
@@ -6595,11 +6595,11 @@
       </c>
       <c r="H95">
         <f t="shared" si="14"/>
-        <v>114</v>
+        <v>287</v>
       </c>
       <c r="I95">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1086</v>
       </c>
       <c r="J95">
         <f t="shared" si="16"/>
@@ -6636,11 +6636,11 @@
       </c>
       <c r="H96">
         <f t="shared" si="14"/>
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="I96">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1089</v>
       </c>
       <c r="J96">
         <f t="shared" si="16"/>
@@ -6677,11 +6677,11 @@
       </c>
       <c r="H97">
         <f t="shared" si="14"/>
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="I97">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1093</v>
       </c>
       <c r="J97">
         <f t="shared" si="16"/>
@@ -6718,11 +6718,11 @@
       </c>
       <c r="H98">
         <f t="shared" si="14"/>
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="I98">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1097</v>
       </c>
       <c r="J98">
         <f t="shared" si="16"/>
@@ -6759,11 +6759,11 @@
       </c>
       <c r="H99">
         <f t="shared" si="14"/>
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="I99">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1101</v>
       </c>
       <c r="J99">
         <f t="shared" si="16"/>
@@ -6800,11 +6800,11 @@
       </c>
       <c r="H100">
         <f t="shared" si="14"/>
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="I100">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1105</v>
       </c>
       <c r="J100">
         <f t="shared" si="16"/>
@@ -6841,11 +6841,11 @@
       </c>
       <c r="H101">
         <f t="shared" si="14"/>
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="I101">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1109</v>
       </c>
       <c r="J101">
         <f t="shared" si="16"/>
@@ -6882,11 +6882,11 @@
       </c>
       <c r="H102">
         <f t="shared" si="14"/>
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="I102">
         <f t="shared" si="15"/>
-        <v>964</v>
+        <v>1113</v>
       </c>
       <c r="J102">
         <f t="shared" si="16"/>
@@ -6923,11 +6923,11 @@
       </c>
       <c r="H103">
         <f t="shared" si="14"/>
-        <v>147</v>
+        <v>292</v>
       </c>
       <c r="I103">
         <f t="shared" si="15"/>
-        <v>965</v>
+        <v>1117</v>
       </c>
       <c r="J103">
         <f t="shared" si="16"/>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="H104">
         <f t="shared" si="14"/>
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="I104">
         <f t="shared" si="15"/>
-        <v>965</v>
+        <v>1122</v>
       </c>
       <c r="J104">
         <f t="shared" si="16"/>
@@ -7005,11 +7005,11 @@
       </c>
       <c r="H105">
         <f t="shared" si="14"/>
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="I105">
         <f t="shared" si="15"/>
-        <v>966</v>
+        <v>1126</v>
       </c>
       <c r="J105">
         <f t="shared" si="16"/>
@@ -7046,11 +7046,11 @@
       </c>
       <c r="H106">
         <f t="shared" si="14"/>
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="I106">
         <f t="shared" si="15"/>
-        <v>967</v>
+        <v>1130</v>
       </c>
       <c r="J106">
         <f t="shared" si="16"/>
@@ -7087,11 +7087,11 @@
       </c>
       <c r="H107">
         <f t="shared" si="14"/>
-        <v>163</v>
+        <v>292</v>
       </c>
       <c r="I107">
         <f t="shared" si="15"/>
-        <v>967</v>
+        <v>1134</v>
       </c>
       <c r="J107">
         <f t="shared" si="16"/>
@@ -7128,11 +7128,11 @@
       </c>
       <c r="H108">
         <f t="shared" si="14"/>
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="I108">
         <f t="shared" si="15"/>
-        <v>968</v>
+        <v>1138</v>
       </c>
       <c r="J108">
         <f t="shared" si="16"/>
@@ -7169,11 +7169,11 @@
       </c>
       <c r="H109">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v>292</v>
       </c>
       <c r="I109">
         <f t="shared" si="15"/>
-        <v>969</v>
+        <v>1142</v>
       </c>
       <c r="J109">
         <f t="shared" si="16"/>
@@ -7210,11 +7210,11 @@
       </c>
       <c r="H110">
         <f t="shared" si="14"/>
-        <v>174</v>
+        <v>292</v>
       </c>
       <c r="I110">
         <f t="shared" si="15"/>
-        <v>970</v>
+        <v>1146</v>
       </c>
       <c r="J110">
         <f t="shared" si="16"/>
@@ -7251,11 +7251,11 @@
       </c>
       <c r="H111">
         <f t="shared" si="14"/>
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="I111">
         <f t="shared" si="15"/>
-        <v>972</v>
+        <v>1150</v>
       </c>
       <c r="J111">
         <f t="shared" si="16"/>
@@ -7292,11 +7292,11 @@
       </c>
       <c r="H112">
         <f t="shared" si="14"/>
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="I112">
         <f t="shared" si="15"/>
-        <v>973</v>
+        <v>1154</v>
       </c>
       <c r="J112">
         <f t="shared" si="16"/>
@@ -7333,11 +7333,11 @@
       </c>
       <c r="H113">
         <f t="shared" si="14"/>
-        <v>186</v>
+        <v>290</v>
       </c>
       <c r="I113">
         <f t="shared" si="15"/>
-        <v>974</v>
+        <v>1158</v>
       </c>
       <c r="J113">
         <f t="shared" si="16"/>
@@ -7374,11 +7374,11 @@
       </c>
       <c r="H114">
         <f t="shared" si="14"/>
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="I114">
         <f t="shared" si="15"/>
-        <v>976</v>
+        <v>1162</v>
       </c>
       <c r="J114">
         <f t="shared" si="16"/>
@@ -7415,11 +7415,11 @@
       </c>
       <c r="H115">
         <f t="shared" si="14"/>
-        <v>193</v>
+        <v>288</v>
       </c>
       <c r="I115">
         <f t="shared" si="15"/>
-        <v>977</v>
+        <v>1166</v>
       </c>
       <c r="J115">
         <f t="shared" si="16"/>
@@ -7456,11 +7456,11 @@
       </c>
       <c r="H116">
         <f t="shared" si="14"/>
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="I116">
         <f t="shared" si="15"/>
-        <v>979</v>
+        <v>1170</v>
       </c>
       <c r="J116">
         <f t="shared" si="16"/>
@@ -7497,11 +7497,11 @@
       </c>
       <c r="H117">
         <f t="shared" si="14"/>
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="I117">
         <f t="shared" si="15"/>
-        <v>981</v>
+        <v>1174</v>
       </c>
       <c r="J117">
         <f t="shared" si="16"/>
@@ -7538,11 +7538,11 @@
       </c>
       <c r="H118">
         <f t="shared" si="14"/>
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="I118">
         <f t="shared" si="15"/>
-        <v>983</v>
+        <v>1178</v>
       </c>
       <c r="J118">
         <f t="shared" si="16"/>
@@ -7579,11 +7579,11 @@
       </c>
       <c r="H119">
         <f t="shared" si="14"/>
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="I119">
         <f t="shared" si="15"/>
-        <v>985</v>
+        <v>1182</v>
       </c>
       <c r="J119">
         <f t="shared" si="16"/>
@@ -7620,11 +7620,11 @@
       </c>
       <c r="H120">
         <f t="shared" si="14"/>
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="I120">
         <f t="shared" si="15"/>
-        <v>987</v>
+        <v>1185</v>
       </c>
       <c r="J120">
         <f t="shared" si="16"/>
@@ -7661,11 +7661,11 @@
       </c>
       <c r="H121">
         <f t="shared" si="14"/>
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="I121">
         <f t="shared" si="15"/>
-        <v>989</v>
+        <v>1189</v>
       </c>
       <c r="J121">
         <f t="shared" si="16"/>
@@ -7702,11 +7702,11 @@
       </c>
       <c r="H122">
         <f t="shared" si="14"/>
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="I122">
         <f t="shared" si="15"/>
-        <v>991</v>
+        <v>1193</v>
       </c>
       <c r="J122">
         <f t="shared" si="16"/>
@@ -7743,11 +7743,11 @@
       </c>
       <c r="H123">
         <f t="shared" si="14"/>
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="I123">
         <f t="shared" si="15"/>
-        <v>993</v>
+        <v>1197</v>
       </c>
       <c r="J123">
         <f t="shared" si="16"/>
@@ -7784,11 +7784,11 @@
       </c>
       <c r="H124">
         <f t="shared" si="14"/>
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="I124">
         <f t="shared" si="15"/>
-        <v>996</v>
+        <v>1200</v>
       </c>
       <c r="J124">
         <f t="shared" si="16"/>
@@ -7825,11 +7825,11 @@
       </c>
       <c r="H125">
         <f t="shared" si="14"/>
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="I125">
         <f t="shared" si="15"/>
-        <v>998</v>
+        <v>1204</v>
       </c>
       <c r="J125">
         <f t="shared" si="16"/>
@@ -7866,11 +7866,11 @@
       </c>
       <c r="H126">
         <f t="shared" si="14"/>
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="I126">
         <f t="shared" si="15"/>
-        <v>1001</v>
+        <v>1208</v>
       </c>
       <c r="J126">
         <f t="shared" si="16"/>
@@ -7907,11 +7907,11 @@
       </c>
       <c r="H127">
         <f t="shared" si="14"/>
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="I127">
         <f t="shared" si="15"/>
-        <v>1003</v>
+        <v>1211</v>
       </c>
       <c r="J127">
         <f t="shared" si="16"/>
@@ -7948,11 +7948,11 @@
       </c>
       <c r="H128">
         <f t="shared" si="14"/>
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I128">
         <f t="shared" si="15"/>
-        <v>1006</v>
+        <v>1215</v>
       </c>
       <c r="J128">
         <f t="shared" si="16"/>
@@ -7989,11 +7989,11 @@
       </c>
       <c r="H129">
         <f t="shared" si="14"/>
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="I129">
         <f t="shared" si="15"/>
-        <v>1009</v>
+        <v>1218</v>
       </c>
       <c r="J129">
         <f t="shared" si="16"/>
@@ -8030,11 +8030,11 @@
       </c>
       <c r="H130">
         <f t="shared" si="14"/>
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="I130">
         <f t="shared" si="15"/>
-        <v>1012</v>
+        <v>1221</v>
       </c>
       <c r="J130">
         <f t="shared" si="16"/>
@@ -8071,11 +8071,11 @@
       </c>
       <c r="H131">
         <f t="shared" si="14"/>
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I131">
         <f t="shared" si="15"/>
-        <v>1014</v>
+        <v>1225</v>
       </c>
       <c r="J131">
         <f t="shared" si="16"/>
@@ -8112,11 +8112,11 @@
       </c>
       <c r="H132">
         <f t="shared" si="14"/>
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="I132">
         <f t="shared" si="15"/>
-        <v>1017</v>
+        <v>1228</v>
       </c>
       <c r="J132">
         <f t="shared" si="16"/>
@@ -8153,11 +8153,11 @@
       </c>
       <c r="H133">
         <f t="shared" si="14"/>
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I133">
         <f t="shared" si="15"/>
-        <v>1020</v>
+        <v>1231</v>
       </c>
       <c r="J133">
         <f t="shared" si="16"/>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="I134">
         <f t="shared" si="15"/>
-        <v>1024</v>
+        <v>1235</v>
       </c>
       <c r="J134">
         <f t="shared" si="16"/>
@@ -8234,12 +8234,12 @@
         <v>1132.6290066366712</v>
       </c>
       <c r="H135">
-        <f t="shared" ref="H135:H198" si="23">INT(F135-E135*$F$3)</f>
-        <v>257</v>
+        <f t="shared" ref="H135:H198" si="23">INT(F135+E135*$F$3)</f>
+        <v>252</v>
       </c>
       <c r="I135">
-        <f t="shared" ref="I135:I198" si="24">INT(G135+D135*$F$3)</f>
-        <v>1027</v>
+        <f t="shared" ref="I135:I198" si="24">INT(G135-D135*$F$3)</f>
+        <v>1238</v>
       </c>
       <c r="J135">
         <f t="shared" ref="J135:J198" si="25">INT(D135*256)</f>
@@ -8276,11 +8276,11 @@
       </c>
       <c r="H136">
         <f t="shared" si="23"/>
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I136">
         <f t="shared" si="24"/>
-        <v>1030</v>
+        <v>1241</v>
       </c>
       <c r="J136">
         <f t="shared" si="25"/>
@@ -8317,11 +8317,11 @@
       </c>
       <c r="H137">
         <f t="shared" si="23"/>
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="I137">
         <f t="shared" si="24"/>
-        <v>1033</v>
+        <v>1244</v>
       </c>
       <c r="J137">
         <f t="shared" si="25"/>
@@ -8358,11 +8358,11 @@
       </c>
       <c r="H138">
         <f t="shared" si="23"/>
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="I138">
         <f t="shared" si="24"/>
-        <v>1037</v>
+        <v>1246</v>
       </c>
       <c r="J138">
         <f t="shared" si="25"/>
@@ -8399,11 +8399,11 @@
       </c>
       <c r="H139">
         <f t="shared" si="23"/>
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="I139">
         <f t="shared" si="24"/>
-        <v>1040</v>
+        <v>1249</v>
       </c>
       <c r="J139">
         <f t="shared" si="25"/>
@@ -8440,11 +8440,11 @@
       </c>
       <c r="H140">
         <f t="shared" si="23"/>
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="I140">
         <f t="shared" si="24"/>
-        <v>1043</v>
+        <v>1252</v>
       </c>
       <c r="J140">
         <f t="shared" si="25"/>
@@ -8481,11 +8481,11 @@
       </c>
       <c r="H141">
         <f t="shared" si="23"/>
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="I141">
         <f t="shared" si="24"/>
-        <v>1047</v>
+        <v>1255</v>
       </c>
       <c r="J141">
         <f t="shared" si="25"/>
@@ -8522,11 +8522,11 @@
       </c>
       <c r="H142">
         <f t="shared" si="23"/>
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="I142">
         <f t="shared" si="24"/>
-        <v>1050</v>
+        <v>1257</v>
       </c>
       <c r="J142">
         <f t="shared" si="25"/>
@@ -8563,11 +8563,11 @@
       </c>
       <c r="H143">
         <f t="shared" si="23"/>
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="I143">
         <f t="shared" si="24"/>
-        <v>1054</v>
+        <v>1260</v>
       </c>
       <c r="J143">
         <f t="shared" si="25"/>
@@ -8604,11 +8604,11 @@
       </c>
       <c r="H144">
         <f t="shared" si="23"/>
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="I144">
         <f t="shared" si="24"/>
-        <v>1058</v>
+        <v>1262</v>
       </c>
       <c r="J144">
         <f t="shared" si="25"/>
@@ -8645,11 +8645,11 @@
       </c>
       <c r="H145">
         <f t="shared" si="23"/>
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="I145">
         <f t="shared" si="24"/>
-        <v>1061</v>
+        <v>1265</v>
       </c>
       <c r="J145">
         <f t="shared" si="25"/>
@@ -8686,11 +8686,11 @@
       </c>
       <c r="H146">
         <f t="shared" si="23"/>
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="I146">
         <f t="shared" si="24"/>
-        <v>1065</v>
+        <v>1267</v>
       </c>
       <c r="J146">
         <f t="shared" si="25"/>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="H147">
         <f t="shared" si="23"/>
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="I147">
         <f t="shared" si="24"/>
-        <v>1069</v>
+        <v>1269</v>
       </c>
       <c r="J147">
         <f t="shared" si="25"/>
@@ -8768,11 +8768,11 @@
       </c>
       <c r="H148">
         <f t="shared" si="23"/>
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="I148">
         <f t="shared" si="24"/>
-        <v>1073</v>
+        <v>1271</v>
       </c>
       <c r="J148">
         <f t="shared" si="25"/>
@@ -8809,11 +8809,11 @@
       </c>
       <c r="H149">
         <f t="shared" si="23"/>
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="I149">
         <f t="shared" si="24"/>
-        <v>1076</v>
+        <v>1273</v>
       </c>
       <c r="J149">
         <f t="shared" si="25"/>
@@ -8850,11 +8850,11 @@
       </c>
       <c r="H150">
         <f t="shared" si="23"/>
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="I150">
         <f t="shared" si="24"/>
-        <v>1080</v>
+        <v>1275</v>
       </c>
       <c r="J150">
         <f t="shared" si="25"/>
@@ -8891,11 +8891,11 @@
       </c>
       <c r="H151">
         <f t="shared" si="23"/>
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="I151">
         <f t="shared" si="24"/>
-        <v>1084</v>
+        <v>1277</v>
       </c>
       <c r="J151">
         <f t="shared" si="25"/>
@@ -8932,11 +8932,11 @@
       </c>
       <c r="H152">
         <f t="shared" si="23"/>
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="I152">
         <f t="shared" si="24"/>
-        <v>1088</v>
+        <v>1279</v>
       </c>
       <c r="J152">
         <f t="shared" si="25"/>
@@ -8973,11 +8973,11 @@
       </c>
       <c r="H153">
         <f t="shared" si="23"/>
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="I153">
         <f t="shared" si="24"/>
-        <v>1092</v>
+        <v>1281</v>
       </c>
       <c r="J153">
         <f t="shared" si="25"/>
@@ -9014,11 +9014,11 @@
       </c>
       <c r="H154">
         <f t="shared" si="23"/>
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="I154">
         <f t="shared" si="24"/>
-        <v>1096</v>
+        <v>1282</v>
       </c>
       <c r="J154">
         <f t="shared" si="25"/>
@@ -9055,11 +9055,11 @@
       </c>
       <c r="H155">
         <f t="shared" si="23"/>
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="I155">
         <f t="shared" si="24"/>
-        <v>1100</v>
+        <v>1284</v>
       </c>
       <c r="J155">
         <f t="shared" si="25"/>
@@ -9096,11 +9096,11 @@
       </c>
       <c r="H156">
         <f t="shared" si="23"/>
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="I156">
         <f t="shared" si="24"/>
-        <v>1104</v>
+        <v>1285</v>
       </c>
       <c r="J156">
         <f t="shared" si="25"/>
@@ -9137,11 +9137,11 @@
       </c>
       <c r="H157">
         <f t="shared" si="23"/>
-        <v>291</v>
+        <v>178</v>
       </c>
       <c r="I157">
         <f t="shared" si="24"/>
-        <v>1108</v>
+        <v>1286</v>
       </c>
       <c r="J157">
         <f t="shared" si="25"/>
@@ -9178,11 +9178,11 @@
       </c>
       <c r="H158">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="I158">
         <f t="shared" si="24"/>
-        <v>1112</v>
+        <v>1288</v>
       </c>
       <c r="J158">
         <f t="shared" si="25"/>
@@ -9219,11 +9219,11 @@
       </c>
       <c r="H159">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="I159">
         <f t="shared" si="24"/>
-        <v>1116</v>
+        <v>1289</v>
       </c>
       <c r="J159">
         <f t="shared" si="25"/>
@@ -9260,11 +9260,11 @@
       </c>
       <c r="H160">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="I160">
         <f t="shared" si="24"/>
-        <v>1120</v>
+        <v>1290</v>
       </c>
       <c r="J160">
         <f t="shared" si="25"/>
@@ -9301,11 +9301,11 @@
       </c>
       <c r="H161">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>163</v>
       </c>
       <c r="I161">
         <f t="shared" si="24"/>
-        <v>1124</v>
+        <v>1291</v>
       </c>
       <c r="J161">
         <f t="shared" si="25"/>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="H162">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="I162">
         <f t="shared" si="24"/>
-        <v>1128</v>
+        <v>1291</v>
       </c>
       <c r="J162">
         <f t="shared" si="25"/>
@@ -9383,11 +9383,11 @@
       </c>
       <c r="H163">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="I163">
         <f t="shared" si="24"/>
-        <v>1132</v>
+        <v>1292</v>
       </c>
       <c r="J163">
         <f t="shared" si="25"/>
@@ -9424,11 +9424,11 @@
       </c>
       <c r="H164">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>151</v>
       </c>
       <c r="I164">
         <f t="shared" si="24"/>
-        <v>1136</v>
+        <v>1293</v>
       </c>
       <c r="J164">
         <f t="shared" si="25"/>
@@ -9465,11 +9465,11 @@
       </c>
       <c r="H165">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="I165">
         <f t="shared" si="24"/>
-        <v>1141</v>
+        <v>1293</v>
       </c>
       <c r="J165">
         <f t="shared" si="25"/>
@@ -9506,11 +9506,11 @@
       </c>
       <c r="H166">
         <f t="shared" si="23"/>
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="I166">
         <f t="shared" si="24"/>
-        <v>1145</v>
+        <v>1294</v>
       </c>
       <c r="J166">
         <f t="shared" si="25"/>
@@ -9547,11 +9547,11 @@
       </c>
       <c r="H167">
         <f t="shared" si="23"/>
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="I167">
         <f t="shared" si="24"/>
-        <v>1149</v>
+        <v>1294</v>
       </c>
       <c r="J167">
         <f t="shared" si="25"/>
@@ -9588,11 +9588,11 @@
       </c>
       <c r="H168">
         <f t="shared" si="23"/>
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="I168">
         <f t="shared" si="24"/>
-        <v>1153</v>
+        <v>1294</v>
       </c>
       <c r="J168">
         <f t="shared" si="25"/>
@@ -9629,11 +9629,11 @@
       </c>
       <c r="H169">
         <f t="shared" si="23"/>
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="I169">
         <f t="shared" si="24"/>
-        <v>1157</v>
+        <v>1294</v>
       </c>
       <c r="J169">
         <f t="shared" si="25"/>
@@ -9670,11 +9670,11 @@
       </c>
       <c r="H170">
         <f t="shared" si="23"/>
-        <v>289</v>
+        <v>126</v>
       </c>
       <c r="I170">
         <f t="shared" si="24"/>
-        <v>1161</v>
+        <v>1294</v>
       </c>
       <c r="J170">
         <f t="shared" si="25"/>
@@ -9711,11 +9711,11 @@
       </c>
       <c r="H171">
         <f t="shared" si="23"/>
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="I171">
         <f t="shared" si="24"/>
-        <v>1165</v>
+        <v>1294</v>
       </c>
       <c r="J171">
         <f t="shared" si="25"/>
@@ -9752,11 +9752,11 @@
       </c>
       <c r="H172">
         <f t="shared" si="23"/>
-        <v>288</v>
+        <v>118</v>
       </c>
       <c r="I172">
         <f t="shared" si="24"/>
-        <v>1169</v>
+        <v>1294</v>
       </c>
       <c r="J172">
         <f t="shared" si="25"/>
@@ -9793,11 +9793,11 @@
       </c>
       <c r="H173">
         <f t="shared" si="23"/>
-        <v>287</v>
+        <v>114</v>
       </c>
       <c r="I173">
         <f t="shared" si="24"/>
-        <v>1172</v>
+        <v>1294</v>
       </c>
       <c r="J173">
         <f t="shared" si="25"/>
@@ -9834,11 +9834,11 @@
       </c>
       <c r="H174">
         <f t="shared" si="23"/>
-        <v>286</v>
+        <v>110</v>
       </c>
       <c r="I174">
         <f t="shared" si="24"/>
-        <v>1176</v>
+        <v>1294</v>
       </c>
       <c r="J174">
         <f t="shared" si="25"/>
@@ -9875,11 +9875,11 @@
       </c>
       <c r="H175">
         <f t="shared" si="23"/>
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="I175">
         <f t="shared" si="24"/>
-        <v>1180</v>
+        <v>1293</v>
       </c>
       <c r="J175">
         <f t="shared" si="25"/>
@@ -9916,11 +9916,11 @@
       </c>
       <c r="H176">
         <f t="shared" si="23"/>
-        <v>283</v>
+        <v>102</v>
       </c>
       <c r="I176">
         <f t="shared" si="24"/>
-        <v>1184</v>
+        <v>1293</v>
       </c>
       <c r="J176">
         <f t="shared" si="25"/>
@@ -9957,11 +9957,11 @@
       </c>
       <c r="H177">
         <f t="shared" si="23"/>
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="I177">
         <f t="shared" si="24"/>
-        <v>1188</v>
+        <v>1292</v>
       </c>
       <c r="J177">
         <f t="shared" si="25"/>
@@ -9998,11 +9998,11 @@
       </c>
       <c r="H178">
         <f t="shared" si="23"/>
-        <v>280</v>
+        <v>94</v>
       </c>
       <c r="I178">
         <f t="shared" si="24"/>
-        <v>1192</v>
+        <v>1291</v>
       </c>
       <c r="J178">
         <f t="shared" si="25"/>
@@ -10039,11 +10039,11 @@
       </c>
       <c r="H179">
         <f t="shared" si="23"/>
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="I179">
         <f t="shared" si="24"/>
-        <v>1195</v>
+        <v>1290</v>
       </c>
       <c r="J179">
         <f t="shared" si="25"/>
@@ -10080,11 +10080,11 @@
       </c>
       <c r="H180">
         <f t="shared" si="23"/>
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="I180">
         <f t="shared" si="24"/>
-        <v>1199</v>
+        <v>1289</v>
       </c>
       <c r="J180">
         <f t="shared" si="25"/>
@@ -10121,11 +10121,11 @@
       </c>
       <c r="H181">
         <f t="shared" si="23"/>
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="I181">
         <f t="shared" si="24"/>
-        <v>1203</v>
+        <v>1288</v>
       </c>
       <c r="J181">
         <f t="shared" si="25"/>
@@ -10162,11 +10162,11 @@
       </c>
       <c r="H182">
         <f t="shared" si="23"/>
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="I182">
         <f t="shared" si="24"/>
-        <v>1206</v>
+        <v>1287</v>
       </c>
       <c r="J182">
         <f t="shared" si="25"/>
@@ -10203,11 +10203,11 @@
       </c>
       <c r="H183">
         <f t="shared" si="23"/>
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="I183">
         <f t="shared" si="24"/>
-        <v>1210</v>
+        <v>1286</v>
       </c>
       <c r="J183">
         <f t="shared" si="25"/>
@@ -10244,11 +10244,11 @@
       </c>
       <c r="H184">
         <f t="shared" si="23"/>
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="I184">
         <f t="shared" si="24"/>
-        <v>1214</v>
+        <v>1285</v>
       </c>
       <c r="J184">
         <f t="shared" si="25"/>
@@ -10285,11 +10285,11 @@
       </c>
       <c r="H185">
         <f t="shared" si="23"/>
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="I185">
         <f t="shared" si="24"/>
-        <v>1217</v>
+        <v>1283</v>
       </c>
       <c r="J185">
         <f t="shared" si="25"/>
@@ -10326,11 +10326,11 @@
       </c>
       <c r="H186">
         <f t="shared" si="23"/>
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="I186">
         <f t="shared" si="24"/>
-        <v>1220</v>
+        <v>1282</v>
       </c>
       <c r="J186">
         <f t="shared" si="25"/>
@@ -10367,11 +10367,11 @@
       </c>
       <c r="H187">
         <f t="shared" si="23"/>
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="I187">
         <f t="shared" si="24"/>
-        <v>1224</v>
+        <v>1280</v>
       </c>
       <c r="J187">
         <f t="shared" si="25"/>
@@ -10408,11 +10408,11 @@
       </c>
       <c r="H188">
         <f t="shared" si="23"/>
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="I188">
         <f t="shared" si="24"/>
-        <v>1227</v>
+        <v>1278</v>
       </c>
       <c r="J188">
         <f t="shared" si="25"/>
@@ -10449,11 +10449,11 @@
       </c>
       <c r="H189">
         <f t="shared" si="23"/>
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="I189">
         <f t="shared" si="24"/>
-        <v>1230</v>
+        <v>1277</v>
       </c>
       <c r="J189">
         <f t="shared" si="25"/>
@@ -10490,11 +10490,11 @@
       </c>
       <c r="H190">
         <f t="shared" si="23"/>
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="I190">
         <f t="shared" si="24"/>
-        <v>1233</v>
+        <v>1275</v>
       </c>
       <c r="J190">
         <f t="shared" si="25"/>
@@ -10531,11 +10531,11 @@
       </c>
       <c r="H191">
         <f t="shared" si="23"/>
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="I191">
         <f t="shared" si="24"/>
-        <v>1237</v>
+        <v>1273</v>
       </c>
       <c r="J191">
         <f t="shared" si="25"/>
@@ -10572,11 +10572,11 @@
       </c>
       <c r="H192">
         <f t="shared" si="23"/>
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="I192">
         <f t="shared" si="24"/>
-        <v>1240</v>
+        <v>1271</v>
       </c>
       <c r="J192">
         <f t="shared" si="25"/>
@@ -10613,11 +10613,11 @@
       </c>
       <c r="H193">
         <f t="shared" si="23"/>
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="I193">
         <f t="shared" si="24"/>
-        <v>1243</v>
+        <v>1268</v>
       </c>
       <c r="J193">
         <f t="shared" si="25"/>
@@ -10654,11 +10654,11 @@
       </c>
       <c r="H194">
         <f t="shared" si="23"/>
-        <v>244</v>
+        <v>35</v>
       </c>
       <c r="I194">
         <f t="shared" si="24"/>
-        <v>1246</v>
+        <v>1266</v>
       </c>
       <c r="J194">
         <f t="shared" si="25"/>
@@ -10695,11 +10695,11 @@
       </c>
       <c r="H195">
         <f t="shared" si="23"/>
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="I195">
         <f t="shared" si="24"/>
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="J195">
         <f t="shared" si="25"/>
@@ -10736,11 +10736,11 @@
       </c>
       <c r="H196">
         <f t="shared" si="23"/>
-        <v>239</v>
+        <v>28</v>
       </c>
       <c r="I196">
         <f t="shared" si="24"/>
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="J196">
         <f t="shared" si="25"/>
@@ -10777,11 +10777,11 @@
       </c>
       <c r="H197">
         <f t="shared" si="23"/>
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="I197">
         <f t="shared" si="24"/>
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="J197">
         <f t="shared" si="25"/>
@@ -10818,7 +10818,7 @@
       </c>
       <c r="H198">
         <f t="shared" si="23"/>
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="I198">
         <f t="shared" si="24"/>
@@ -10858,12 +10858,12 @@
         <v>1256.961599383766</v>
       </c>
       <c r="H199">
-        <f t="shared" ref="H199:H261" si="32">INT(F199-E199*$F$3)</f>
-        <v>229</v>
+        <f t="shared" ref="H199:H261" si="32">INT(F199+E199*$F$3)</f>
+        <v>18</v>
       </c>
       <c r="I199">
-        <f t="shared" ref="I199:I261" si="33">INT(G199+D199*$F$3)</f>
-        <v>1259</v>
+        <f t="shared" ref="I199:I261" si="33">INT(G199-D199*$F$3)</f>
+        <v>1254</v>
       </c>
       <c r="J199">
         <f t="shared" ref="J199:J261" si="34">INT(D199*256)</f>
@@ -10900,11 +10900,11 @@
       </c>
       <c r="H200">
         <f t="shared" si="32"/>
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="I200">
         <f t="shared" si="33"/>
-        <v>1262</v>
+        <v>1251</v>
       </c>
       <c r="J200">
         <f t="shared" si="34"/>
@@ -10941,11 +10941,11 @@
       </c>
       <c r="H201">
         <f t="shared" si="32"/>
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I201">
         <f t="shared" si="33"/>
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="J201">
         <f t="shared" si="34"/>
@@ -10982,11 +10982,11 @@
       </c>
       <c r="H202">
         <f t="shared" si="32"/>
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="I202">
         <f t="shared" si="33"/>
-        <v>1266</v>
+        <v>1246</v>
       </c>
       <c r="J202">
         <f t="shared" si="34"/>
@@ -11023,11 +11023,11 @@
       </c>
       <c r="H203">
         <f t="shared" si="32"/>
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="I203">
         <f t="shared" si="33"/>
-        <v>1268</v>
+        <v>1243</v>
       </c>
       <c r="J203">
         <f t="shared" si="34"/>
@@ -11064,11 +11064,11 @@
       </c>
       <c r="H204">
         <f t="shared" si="32"/>
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="I204">
         <f t="shared" si="33"/>
-        <v>1271</v>
+        <v>1240</v>
       </c>
       <c r="J204">
         <f t="shared" si="34"/>
@@ -11105,11 +11105,11 @@
       </c>
       <c r="H205">
         <f t="shared" si="32"/>
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <f t="shared" si="33"/>
-        <v>1273</v>
+        <v>1237</v>
       </c>
       <c r="J205">
         <f t="shared" si="34"/>
@@ -11146,11 +11146,11 @@
       </c>
       <c r="H206">
         <f t="shared" si="32"/>
-        <v>206</v>
+        <v>-1</v>
       </c>
       <c r="I206">
         <f t="shared" si="33"/>
-        <v>1275</v>
+        <v>1233</v>
       </c>
       <c r="J206">
         <f t="shared" si="34"/>
@@ -11187,11 +11187,11 @@
       </c>
       <c r="H207">
         <f t="shared" si="32"/>
-        <v>202</v>
+        <v>-4</v>
       </c>
       <c r="I207">
         <f t="shared" si="33"/>
-        <v>1277</v>
+        <v>1230</v>
       </c>
       <c r="J207">
         <f t="shared" si="34"/>
@@ -11228,11 +11228,11 @@
       </c>
       <c r="H208">
         <f t="shared" si="32"/>
-        <v>198</v>
+        <v>-6</v>
       </c>
       <c r="I208">
         <f t="shared" si="33"/>
-        <v>1278</v>
+        <v>1227</v>
       </c>
       <c r="J208">
         <f t="shared" si="34"/>
@@ -11269,11 +11269,11 @@
       </c>
       <c r="H209">
         <f t="shared" si="32"/>
-        <v>195</v>
+        <v>-9</v>
       </c>
       <c r="I209">
         <f t="shared" si="33"/>
-        <v>1280</v>
+        <v>1224</v>
       </c>
       <c r="J209">
         <f t="shared" si="34"/>
@@ -11310,11 +11310,11 @@
       </c>
       <c r="H210">
         <f t="shared" si="32"/>
-        <v>191</v>
+        <v>-11</v>
       </c>
       <c r="I210">
         <f t="shared" si="33"/>
-        <v>1282</v>
+        <v>1220</v>
       </c>
       <c r="J210">
         <f t="shared" si="34"/>
@@ -11351,11 +11351,11 @@
       </c>
       <c r="H211">
         <f t="shared" si="32"/>
-        <v>187</v>
+        <v>-13</v>
       </c>
       <c r="I211">
         <f t="shared" si="33"/>
-        <v>1283</v>
+        <v>1217</v>
       </c>
       <c r="J211">
         <f t="shared" si="34"/>
@@ -11392,11 +11392,11 @@
       </c>
       <c r="H212">
         <f t="shared" si="32"/>
-        <v>183</v>
+        <v>-15</v>
       </c>
       <c r="I212">
         <f t="shared" si="33"/>
-        <v>1285</v>
+        <v>1214</v>
       </c>
       <c r="J212">
         <f t="shared" si="34"/>
@@ -11433,11 +11433,11 @@
       </c>
       <c r="H213">
         <f t="shared" si="32"/>
-        <v>180</v>
+        <v>-17</v>
       </c>
       <c r="I213">
         <f t="shared" si="33"/>
-        <v>1286</v>
+        <v>1210</v>
       </c>
       <c r="J213">
         <f t="shared" si="34"/>
@@ -11474,11 +11474,11 @@
       </c>
       <c r="H214">
         <f t="shared" si="32"/>
-        <v>176</v>
+        <v>-19</v>
       </c>
       <c r="I214">
         <f t="shared" si="33"/>
-        <v>1287</v>
+        <v>1206</v>
       </c>
       <c r="J214">
         <f t="shared" si="34"/>
@@ -11515,11 +11515,11 @@
       </c>
       <c r="H215">
         <f t="shared" si="32"/>
-        <v>172</v>
+        <v>-21</v>
       </c>
       <c r="I215">
         <f t="shared" si="33"/>
-        <v>1288</v>
+        <v>1203</v>
       </c>
       <c r="J215">
         <f t="shared" si="34"/>
@@ -11556,11 +11556,11 @@
       </c>
       <c r="H216">
         <f t="shared" si="32"/>
-        <v>168</v>
+        <v>-23</v>
       </c>
       <c r="I216">
         <f t="shared" si="33"/>
-        <v>1289</v>
+        <v>1199</v>
       </c>
       <c r="J216">
         <f t="shared" si="34"/>
@@ -11597,11 +11597,11 @@
       </c>
       <c r="H217">
         <f t="shared" si="32"/>
-        <v>164</v>
+        <v>-25</v>
       </c>
       <c r="I217">
         <f t="shared" si="33"/>
-        <v>1290</v>
+        <v>1195</v>
       </c>
       <c r="J217">
         <f t="shared" si="34"/>
@@ -11638,11 +11638,11 @@
       </c>
       <c r="H218">
         <f t="shared" si="32"/>
-        <v>160</v>
+        <v>-26</v>
       </c>
       <c r="I218">
         <f t="shared" si="33"/>
-        <v>1291</v>
+        <v>1192</v>
       </c>
       <c r="J218">
         <f t="shared" si="34"/>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="H219">
         <f t="shared" si="32"/>
-        <v>156</v>
+        <v>-28</v>
       </c>
       <c r="I219">
         <f t="shared" si="33"/>
-        <v>1292</v>
+        <v>1188</v>
       </c>
       <c r="J219">
         <f t="shared" si="34"/>
@@ -11720,11 +11720,11 @@
       </c>
       <c r="H220">
         <f t="shared" si="32"/>
-        <v>152</v>
+        <v>-29</v>
       </c>
       <c r="I220">
         <f t="shared" si="33"/>
-        <v>1293</v>
+        <v>1184</v>
       </c>
       <c r="J220">
         <f t="shared" si="34"/>
@@ -11761,11 +11761,11 @@
       </c>
       <c r="H221">
         <f t="shared" si="32"/>
-        <v>148</v>
+        <v>-30</v>
       </c>
       <c r="I221">
         <f t="shared" si="33"/>
-        <v>1293</v>
+        <v>1180</v>
       </c>
       <c r="J221">
         <f t="shared" si="34"/>
@@ -11802,11 +11802,11 @@
       </c>
       <c r="H222">
         <f t="shared" si="32"/>
-        <v>144</v>
+        <v>-32</v>
       </c>
       <c r="I222">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1176</v>
       </c>
       <c r="J222">
         <f t="shared" si="34"/>
@@ -11843,11 +11843,11 @@
       </c>
       <c r="H223">
         <f t="shared" si="32"/>
-        <v>140</v>
+        <v>-33</v>
       </c>
       <c r="I223">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1172</v>
       </c>
       <c r="J223">
         <f t="shared" si="34"/>
@@ -11884,11 +11884,11 @@
       </c>
       <c r="H224">
         <f t="shared" si="32"/>
-        <v>136</v>
+        <v>-34</v>
       </c>
       <c r="I224">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1169</v>
       </c>
       <c r="J224">
         <f t="shared" si="34"/>
@@ -11925,11 +11925,11 @@
       </c>
       <c r="H225">
         <f t="shared" si="32"/>
-        <v>132</v>
+        <v>-35</v>
       </c>
       <c r="I225">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1165</v>
       </c>
       <c r="J225">
         <f t="shared" si="34"/>
@@ -11966,11 +11966,11 @@
       </c>
       <c r="H226">
         <f t="shared" si="32"/>
-        <v>128</v>
+        <v>-35</v>
       </c>
       <c r="I226">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1161</v>
       </c>
       <c r="J226">
         <f t="shared" si="34"/>
@@ -12007,11 +12007,11 @@
       </c>
       <c r="H227">
         <f t="shared" si="32"/>
-        <v>124</v>
+        <v>-36</v>
       </c>
       <c r="I227">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1157</v>
       </c>
       <c r="J227">
         <f t="shared" si="34"/>
@@ -12048,11 +12048,11 @@
       </c>
       <c r="H228">
         <f t="shared" si="32"/>
-        <v>120</v>
+        <v>-37</v>
       </c>
       <c r="I228">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1153</v>
       </c>
       <c r="J228">
         <f t="shared" si="34"/>
@@ -12089,11 +12089,11 @@
       </c>
       <c r="H229">
         <f t="shared" si="32"/>
-        <v>115</v>
+        <v>-37</v>
       </c>
       <c r="I229">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1149</v>
       </c>
       <c r="J229">
         <f t="shared" si="34"/>
@@ -12130,11 +12130,11 @@
       </c>
       <c r="H230">
         <f t="shared" si="32"/>
-        <v>111</v>
+        <v>-38</v>
       </c>
       <c r="I230">
         <f t="shared" si="33"/>
-        <v>1294</v>
+        <v>1145</v>
       </c>
       <c r="J230">
         <f t="shared" si="34"/>
@@ -12171,11 +12171,11 @@
       </c>
       <c r="H231">
         <f t="shared" si="32"/>
-        <v>107</v>
+        <v>-38</v>
       </c>
       <c r="I231">
         <f t="shared" si="33"/>
-        <v>1293</v>
+        <v>1141</v>
       </c>
       <c r="J231">
         <f t="shared" si="34"/>
@@ -12212,11 +12212,11 @@
       </c>
       <c r="H232">
         <f t="shared" si="32"/>
-        <v>103</v>
+        <v>-38</v>
       </c>
       <c r="I232">
         <f t="shared" si="33"/>
-        <v>1293</v>
+        <v>1136</v>
       </c>
       <c r="J232">
         <f t="shared" si="34"/>
@@ -12253,11 +12253,11 @@
       </c>
       <c r="H233">
         <f t="shared" si="32"/>
-        <v>99</v>
+        <v>-38</v>
       </c>
       <c r="I233">
         <f t="shared" si="33"/>
-        <v>1292</v>
+        <v>1132</v>
       </c>
       <c r="J233">
         <f t="shared" si="34"/>
@@ -12294,11 +12294,11 @@
       </c>
       <c r="H234">
         <f t="shared" si="32"/>
-        <v>95</v>
+        <v>-38</v>
       </c>
       <c r="I234">
         <f t="shared" si="33"/>
-        <v>1291</v>
+        <v>1128</v>
       </c>
       <c r="J234">
         <f t="shared" si="34"/>
@@ -12335,11 +12335,11 @@
       </c>
       <c r="H235">
         <f t="shared" si="32"/>
-        <v>91</v>
+        <v>-38</v>
       </c>
       <c r="I235">
         <f t="shared" si="33"/>
-        <v>1291</v>
+        <v>1124</v>
       </c>
       <c r="J235">
         <f t="shared" si="34"/>
@@ -12376,11 +12376,11 @@
       </c>
       <c r="H236">
         <f t="shared" si="32"/>
-        <v>87</v>
+        <v>-38</v>
       </c>
       <c r="I236">
         <f t="shared" si="33"/>
-        <v>1290</v>
+        <v>1120</v>
       </c>
       <c r="J236">
         <f t="shared" si="34"/>
@@ -12417,11 +12417,11 @@
       </c>
       <c r="H237">
         <f t="shared" si="32"/>
-        <v>84</v>
+        <v>-38</v>
       </c>
       <c r="I237">
         <f t="shared" si="33"/>
-        <v>1289</v>
+        <v>1116</v>
       </c>
       <c r="J237">
         <f t="shared" si="34"/>
@@ -12458,11 +12458,11 @@
       </c>
       <c r="H238">
         <f t="shared" si="32"/>
-        <v>80</v>
+        <v>-38</v>
       </c>
       <c r="I238">
         <f t="shared" si="33"/>
-        <v>1288</v>
+        <v>1112</v>
       </c>
       <c r="J238">
         <f t="shared" si="34"/>
@@ -12499,11 +12499,11 @@
       </c>
       <c r="H239">
         <f t="shared" si="32"/>
-        <v>76</v>
+        <v>-37</v>
       </c>
       <c r="I239">
         <f t="shared" si="33"/>
-        <v>1286</v>
+        <v>1108</v>
       </c>
       <c r="J239">
         <f t="shared" si="34"/>
@@ -12540,11 +12540,11 @@
       </c>
       <c r="H240">
         <f t="shared" si="32"/>
-        <v>72</v>
+        <v>-37</v>
       </c>
       <c r="I240">
         <f t="shared" si="33"/>
-        <v>1285</v>
+        <v>1104</v>
       </c>
       <c r="J240">
         <f t="shared" si="34"/>
@@ -12581,11 +12581,11 @@
       </c>
       <c r="H241">
         <f t="shared" si="32"/>
-        <v>68</v>
+        <v>-36</v>
       </c>
       <c r="I241">
         <f t="shared" si="33"/>
-        <v>1284</v>
+        <v>1100</v>
       </c>
       <c r="J241">
         <f t="shared" si="34"/>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="H242">
         <f t="shared" si="32"/>
-        <v>64</v>
+        <v>-35</v>
       </c>
       <c r="I242">
         <f t="shared" si="33"/>
-        <v>1282</v>
+        <v>1096</v>
       </c>
       <c r="J242">
         <f t="shared" si="34"/>
@@ -12663,11 +12663,11 @@
       </c>
       <c r="H243">
         <f t="shared" si="32"/>
-        <v>61</v>
+        <v>-34</v>
       </c>
       <c r="I243">
         <f t="shared" si="33"/>
-        <v>1281</v>
+        <v>1092</v>
       </c>
       <c r="J243">
         <f t="shared" si="34"/>
@@ -12704,11 +12704,11 @@
       </c>
       <c r="H244">
         <f t="shared" si="32"/>
-        <v>57</v>
+        <v>-33</v>
       </c>
       <c r="I244">
         <f t="shared" si="33"/>
-        <v>1279</v>
+        <v>1088</v>
       </c>
       <c r="J244">
         <f t="shared" si="34"/>
@@ -12745,11 +12745,11 @@
       </c>
       <c r="H245">
         <f t="shared" si="32"/>
-        <v>53</v>
+        <v>-32</v>
       </c>
       <c r="I245">
         <f t="shared" si="33"/>
-        <v>1277</v>
+        <v>1084</v>
       </c>
       <c r="J245">
         <f t="shared" si="34"/>
@@ -12786,11 +12786,11 @@
       </c>
       <c r="H246">
         <f t="shared" si="32"/>
-        <v>50</v>
+        <v>-31</v>
       </c>
       <c r="I246">
         <f t="shared" si="33"/>
-        <v>1275</v>
+        <v>1080</v>
       </c>
       <c r="J246">
         <f t="shared" si="34"/>
@@ -12827,11 +12827,11 @@
       </c>
       <c r="H247">
         <f t="shared" si="32"/>
-        <v>46</v>
+        <v>-30</v>
       </c>
       <c r="I247">
         <f t="shared" si="33"/>
-        <v>1273</v>
+        <v>1076</v>
       </c>
       <c r="J247">
         <f t="shared" si="34"/>
@@ -12868,11 +12868,11 @@
       </c>
       <c r="H248">
         <f t="shared" si="32"/>
-        <v>42</v>
+        <v>-29</v>
       </c>
       <c r="I248">
         <f t="shared" si="33"/>
-        <v>1271</v>
+        <v>1073</v>
       </c>
       <c r="J248">
         <f t="shared" si="34"/>
@@ -12909,11 +12909,11 @@
       </c>
       <c r="H249">
         <f t="shared" si="32"/>
-        <v>39</v>
+        <v>-27</v>
       </c>
       <c r="I249">
         <f t="shared" si="33"/>
-        <v>1269</v>
+        <v>1069</v>
       </c>
       <c r="J249">
         <f t="shared" si="34"/>
@@ -12950,11 +12950,11 @@
       </c>
       <c r="H250">
         <f t="shared" si="32"/>
-        <v>36</v>
+        <v>-26</v>
       </c>
       <c r="I250">
         <f t="shared" si="33"/>
-        <v>1267</v>
+        <v>1065</v>
       </c>
       <c r="J250">
         <f t="shared" si="34"/>
@@ -12991,11 +12991,11 @@
       </c>
       <c r="H251">
         <f t="shared" si="32"/>
-        <v>32</v>
+        <v>-24</v>
       </c>
       <c r="I251">
         <f t="shared" si="33"/>
-        <v>1265</v>
+        <v>1061</v>
       </c>
       <c r="J251">
         <f t="shared" si="34"/>
@@ -13032,11 +13032,11 @@
       </c>
       <c r="H252">
         <f t="shared" si="32"/>
-        <v>29</v>
+        <v>-22</v>
       </c>
       <c r="I252">
         <f t="shared" si="33"/>
-        <v>1262</v>
+        <v>1058</v>
       </c>
       <c r="J252">
         <f t="shared" si="34"/>
@@ -13073,11 +13073,11 @@
       </c>
       <c r="H253">
         <f t="shared" si="32"/>
-        <v>26</v>
+        <v>-21</v>
       </c>
       <c r="I253">
         <f t="shared" si="33"/>
-        <v>1260</v>
+        <v>1054</v>
       </c>
       <c r="J253">
         <f t="shared" si="34"/>
@@ -13114,11 +13114,11 @@
       </c>
       <c r="H254">
         <f t="shared" si="32"/>
-        <v>23</v>
+        <v>-19</v>
       </c>
       <c r="I254">
         <f t="shared" si="33"/>
-        <v>1257</v>
+        <v>1050</v>
       </c>
       <c r="J254">
         <f t="shared" si="34"/>
@@ -13155,11 +13155,11 @@
       </c>
       <c r="H255">
         <f t="shared" si="32"/>
-        <v>19</v>
+        <v>-17</v>
       </c>
       <c r="I255">
         <f t="shared" si="33"/>
-        <v>1255</v>
+        <v>1047</v>
       </c>
       <c r="J255">
         <f t="shared" si="34"/>
@@ -13196,11 +13196,11 @@
       </c>
       <c r="H256">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>-15</v>
       </c>
       <c r="I256">
         <f t="shared" si="33"/>
-        <v>1252</v>
+        <v>1043</v>
       </c>
       <c r="J256">
         <f t="shared" si="34"/>
@@ -13237,11 +13237,11 @@
       </c>
       <c r="H257">
         <f t="shared" si="32"/>
-        <v>13</v>
+        <v>-12</v>
       </c>
       <c r="I257">
         <f t="shared" si="33"/>
-        <v>1249</v>
+        <v>1040</v>
       </c>
       <c r="J257">
         <f t="shared" si="34"/>
@@ -13278,11 +13278,11 @@
       </c>
       <c r="H258">
         <f t="shared" si="32"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I258">
         <f t="shared" si="33"/>
-        <v>1246</v>
+        <v>1037</v>
       </c>
       <c r="J258">
         <f t="shared" si="34"/>
@@ -13319,11 +13319,11 @@
       </c>
       <c r="H259">
         <f t="shared" si="32"/>
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="I259">
         <f t="shared" si="33"/>
-        <v>1244</v>
+        <v>1033</v>
       </c>
       <c r="J259">
         <f t="shared" si="34"/>
@@ -13360,11 +13360,11 @@
       </c>
       <c r="H260">
         <f t="shared" si="32"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="I260">
         <f t="shared" si="33"/>
-        <v>1241</v>
+        <v>1030</v>
       </c>
       <c r="J260">
         <f t="shared" si="34"/>
@@ -13401,11 +13401,11 @@
       </c>
       <c r="H261">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="I261">
         <f t="shared" si="33"/>
-        <v>1238</v>
+        <v>1027</v>
       </c>
       <c r="J261">
         <f t="shared" si="34"/>
